--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMP.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMP.XLSX
@@ -153,10 +153,10 @@
     <t>JEFERSON DE MORAES NOBRE</t>
   </si>
   <si>
-    <t>GRAZIELE RASASQUE VIDIPO</t>
-  </si>
-  <si>
-    <t>FERNANDA IZABELA DA SILVA</t>
+    <t>GRAZIELE RAFASQUE VIDIPO</t>
+  </si>
+  <si>
+    <t>FERNANDA ISABELA DA SILVA ZUMA</t>
   </si>
   <si>
     <t>AMANDA CRISTINA FRANCISCA DA S</t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMP.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMP.XLSX
@@ -172,10 +172,10 @@
     <t>IMP</t>
   </si>
   <si>
-    <t>ELISA DO NASCIMENTO NUNES</t>
+    <t>ANDRE POTASCHEFF</t>
   </si>
   <si>
-    <t>Matr.: 3349</t>
+    <t>Matr.: 2602</t>
   </si>
   <si>
     <r>
@@ -6324,7 +6324,7 @@
       <c r="E6" s="115"/>
       <c r="F6" s="104" t="str">
         <f>'Segunda a Sexta'!F6:L6</f>
-        <v>ELISA DO NASCIMENTO NUNES</v>
+        <v>ANDRE POTASCHEFF</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -6413,7 +6413,7 @@
       <c r="E8" s="115"/>
       <c r="F8" s="104" t="str">
         <f>'Segunda a Sexta'!F8:L8</f>
-        <v>Matr.: 3349</v>
+        <v>Matr.: 2602</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMP.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMP.XLSX
@@ -172,10 +172,10 @@
     <t>IMP</t>
   </si>
   <si>
-    <t>ANDRE POTASCHEFF</t>
+    <t>ARISTOCLE AGUIAR FILHO</t>
   </si>
   <si>
-    <t>Matr.: 2602</t>
+    <t>Matr.: 1956</t>
   </si>
   <si>
     <r>
@@ -6324,7 +6324,7 @@
       <c r="E6" s="115"/>
       <c r="F6" s="104" t="str">
         <f>'Segunda a Sexta'!F6:L6</f>
-        <v>ANDRE POTASCHEFF</v>
+        <v>ARISTOCLE AGUIAR FILHO</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -6413,7 +6413,7 @@
       <c r="E8" s="115"/>
       <c r="F8" s="104" t="str">
         <f>'Segunda a Sexta'!F8:L8</f>
-        <v>Matr.: 2602</v>
+        <v>Matr.: 1956</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMP.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMP.XLSX
@@ -139,13 +139,13 @@
     <t>FERNANDA ISABELA DA SILVA ZUMA</t>
   </si>
   <si>
-    <t>MARCELO TORRES DE QUEIROZ</t>
-  </si>
-  <si>
     <t>JULIANA MENEZES DO NASCIMENTO</t>
   </si>
   <si>
     <t>DAVI FELIPE PONTEL</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t>3019</t>
@@ -157,13 +157,13 @@
     <t>3045</t>
   </si>
   <si>
-    <t>3152</t>
-  </si>
-  <si>
     <t>3427</t>
   </si>
   <si>
     <t>3442</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t>SETOR IMP</t>
@@ -3531,15 +3531,15 @@
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>MARCELO TORRES DE QUEIROZ</v>
+        <v>JULIANA MENEZES DO NASCIMENTO</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v>JULIANA MENEZES DO NASCIMENTO</v>
+        <v>DAVI FELIPE PONTEL</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
-        <v>DAVI FELIPE PONTEL</v>
+        <v> </v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
@@ -3558,15 +3558,15 @@
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>MARCELO TORRES DE QUEIROZ</v>
+        <v>JULIANA MENEZES DO NASCIMENTO</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v>JULIANA MENEZES DO NASCIMENTO</v>
+        <v>DAVI FELIPE PONTEL</v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
-        <v>DAVI FELIPE PONTEL</v>
+        <v> </v>
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
@@ -3582,15 +3582,15 @@
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>MARCELO TORRES DE QUEIROZ</v>
+        <v>JULIANA MENEZES DO NASCIMENTO</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>JULIANA MENEZES DO NASCIMENTO</v>
+        <v>DAVI FELIPE PONTEL</v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>DAVI FELIPE PONTEL</v>
+        <v> </v>
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
@@ -3606,15 +3606,15 @@
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>MARCELO TORRES DE QUEIROZ</v>
+        <v>JULIANA MENEZES DO NASCIMENTO</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JULIANA MENEZES DO NASCIMENTO</v>
+        <v>DAVI FELIPE PONTEL</v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>DAVI FELIPE PONTEL</v>
+        <v> </v>
       </c>
     </row>
     <row r="13" spans="1:40" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3911,15 +3911,15 @@
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>3152</v>
+        <v>3427</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v>3427</v>
+        <v>3442</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
-        <v>3442</v>
+        <v> </v>
       </c>
       <c r="T19" s="209"/>
       <c r="U19" s="191" t="str">
@@ -3938,15 +3938,15 @@
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>3152</v>
+        <v>3427</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v>3427</v>
+        <v>3442</v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
-        <v>3442</v>
+        <v> </v>
       </c>
       <c r="AC19" s="207" t="str">
         <f t="shared" ref="AC19:AH19" si="2">G19</f>
@@ -3962,15 +3962,15 @@
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3152</v>
+        <v>3427</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3427</v>
+        <v>3442</v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3442</v>
+        <v> </v>
       </c>
       <c r="AI19" s="205" t="str">
         <f t="shared" ref="AI19:AN19" si="3">G19</f>
@@ -3986,15 +3986,15 @@
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3152</v>
+        <v>3427</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3427</v>
+        <v>3442</v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3442</v>
+        <v> </v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6615,15 +6615,15 @@
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>MARCELO TORRES DE QUEIROZ</v>
+        <v>JULIANA MENEZES DO NASCIMENTO</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>JULIANA MENEZES DO NASCIMENTO</v>
+        <v>DAVI FELIPE PONTEL</v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
-        <v>DAVI FELIPE PONTEL</v>
+        <v> </v>
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
@@ -6640,15 +6640,15 @@
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>MARCELO TORRES DE QUEIROZ</v>
+        <v>JULIANA MENEZES DO NASCIMENTO</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>JULIANA MENEZES DO NASCIMENTO</v>
+        <v>DAVI FELIPE PONTEL</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
-        <v>DAVI FELIPE PONTEL</v>
+        <v> </v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="262"/>
@@ -6947,15 +6947,15 @@
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3152</v>
+        <v>3427</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>3427</v>
+        <v>3442</v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
-        <v>3442</v>
+        <v> </v>
       </c>
       <c r="M19" s="191" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
@@ -6972,15 +6972,15 @@
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3152</v>
+        <v>3427</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>3427</v>
+        <v>3442</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
-        <v>3442</v>
+        <v> </v>
       </c>
       <c r="T19" s="209"/>
       <c r="U19" s="262"/>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMP.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMP.XLSX
@@ -172,10 +172,10 @@
     <t>IMP</t>
   </si>
   <si>
-    <t>ARISTOCLE AGUIAR FILHO</t>
+    <t>ELISA DO NASCIMENTO NUNES</t>
   </si>
   <si>
-    <t>Matr.: 1956</t>
+    <t>Matr.: 3349</t>
   </si>
   <si>
     <r>
@@ -6324,7 +6324,7 @@
       <c r="E6" s="115"/>
       <c r="F6" s="104" t="str">
         <f>'Segunda a Sexta'!F6:L6</f>
-        <v>ARISTOCLE AGUIAR FILHO</v>
+        <v>ELISA DO NASCIMENTO NUNES</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -6413,7 +6413,7 @@
       <c r="E8" s="115"/>
       <c r="F8" s="104" t="str">
         <f>'Segunda a Sexta'!F8:L8</f>
-        <v>Matr.: 1956</v>
+        <v>Matr.: 3349</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>
